--- a/sm_core/New_Accounts_List/New_Accounts_List-Fid.xlsx
+++ b/sm_core/New_Accounts_List/New_Accounts_List-Fid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup\portfolio\sm_core\New_Accounts_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\New_Accounts_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7EDC66-AD28-469F-97E2-96DC2EBFE6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5209D76-BE23-4BCB-9C88-05A0FF961B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2336C7A0-F413-4607-B12A-8BAF1755AB3C}"/>
   </bookViews>
@@ -94,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="ARIAL"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ARIAL"/>
     </font>
@@ -131,14 +136,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -146,13 +149,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{395FE329-05D3-4FBF-8F86-C05265603BE2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF1FA94-7A30-48F6-B4E9-9EFCAE767496}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,162 +497,248 @@
     <col min="17" max="17" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
